--- a/Modules/CVMod8_V2/CVMod8_V2_BOM.xlsx
+++ b/Modules/CVMod8_V2/CVMod8_V2_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\CVMod8_V2.git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\CVMod8_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC1E586-FE4B-4601-B257-885E6DC5A943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581BFAF7-CD2A-4DE0-8DF1-1E854AA43B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,9 +224,6 @@
     <t>https://www.aliexpress.com/item/1005003256254825.html</t>
   </si>
   <si>
-    <t>Resistor Network THT, 4 Isolated Resistors</t>
-  </si>
-  <si>
     <t>https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/</t>
   </si>
   <si>
@@ -481,6 +478,21 @@
   </si>
   <si>
     <t>https://www.tme.eu/hr/en/details/zl202-80g/pin-headers/connfly/ds1021-2-40sf11/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resistor Network THT, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 Isolated Resistors</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1362,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,7 +1390,7 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1399,7 +1411,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>16</v>
       </c>
@@ -1410,7 +1422,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1419,7 +1431,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>16</v>
       </c>
@@ -1430,19 +1442,20 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="3"/>
+      <c r="P3" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12</v>
       </c>
@@ -1453,7 +1466,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
@@ -1462,7 +1475,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1473,7 +1486,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -1482,7 +1495,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1502,7 +1515,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1513,7 +1526,7 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
@@ -1522,7 +1535,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1533,7 +1546,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -1542,47 +1555,47 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
         <v>73</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" t="s">
         <v>74</v>
       </c>
-      <c r="D9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1590,10 +1603,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
         <v>61</v>
@@ -1602,27 +1615,27 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1633,7 +1646,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -1642,47 +1655,47 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
       <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" t="s">
         <v>82</v>
       </c>
-      <c r="C14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
       <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" t="s">
         <v>82</v>
       </c>
-      <c r="C15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1693,7 +1706,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
@@ -1707,19 +1720,19 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1733,13 +1746,13 @@
         <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1747,19 +1760,19 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
         <v>70</v>
       </c>
-      <c r="C19" t="s">
-        <v>71</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1770,16 +1783,16 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1799,7 +1812,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1807,13 +1820,13 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
         <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>59</v>
@@ -1824,16 +1837,16 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
         <v>99</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>100</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1841,16 +1854,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1858,16 +1871,16 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
         <v>103</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>104</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1932,7 +1945,7 @@
         <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
         <v>51</v>
@@ -1943,7 +1956,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1951,27 +1964,27 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1999,21 +2012,21 @@
     <hyperlink ref="F28" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="F29" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="F31" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="L3" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F12" r:id="rId16" xr:uid="{0A1D7732-0DDD-4C8B-AC41-8A8F8A5F28FE}"/>
-    <hyperlink ref="F19" r:id="rId17" xr:uid="{87917B98-45C2-4356-99DB-B5B8038C28A9}"/>
-    <hyperlink ref="F17" r:id="rId18" xr:uid="{7E9B1C1C-08C2-4E3A-836F-A55BD1AACB08}"/>
-    <hyperlink ref="F20" r:id="rId19" xr:uid="{3932249F-F50C-48B7-B9ED-979BED78C705}"/>
-    <hyperlink ref="F18" r:id="rId20" xr:uid="{617026E1-E8F8-41F0-B6F6-C7F3EABF9EDE}"/>
-    <hyperlink ref="F9" r:id="rId21" xr:uid="{D97E84B0-51EF-4445-A800-1CCE20EEB5DD}"/>
-    <hyperlink ref="F10" r:id="rId22" xr:uid="{37603052-44CC-44A4-A373-590BE7540B20}"/>
-    <hyperlink ref="F15" r:id="rId23" xr:uid="{57A67E62-1F07-4F81-BD71-0FCCC53DDD36}"/>
-    <hyperlink ref="F23" r:id="rId24" xr:uid="{386CA78F-ECAF-4BED-B017-86D6F4F05D83}"/>
-    <hyperlink ref="F24" r:id="rId25" xr:uid="{23053745-F5D1-4E91-88AD-FDB570AEC8C5}"/>
-    <hyperlink ref="F26" r:id="rId26" xr:uid="{3EC41E3D-44DB-45CF-A556-8137102A88B8}"/>
-    <hyperlink ref="F25" r:id="rId27" xr:uid="{72DA2EC0-5FE6-4692-99E2-83F80524A437}"/>
-    <hyperlink ref="F14" r:id="rId28" xr:uid="{11ED5ED0-56A5-4C20-93A1-FDAE72827046}"/>
-    <hyperlink ref="F21" r:id="rId29" xr:uid="{A893ABC8-5223-47F2-8335-C8AD6F9E7D68}"/>
+    <hyperlink ref="F12" r:id="rId15" xr:uid="{0A1D7732-0DDD-4C8B-AC41-8A8F8A5F28FE}"/>
+    <hyperlink ref="F19" r:id="rId16" xr:uid="{87917B98-45C2-4356-99DB-B5B8038C28A9}"/>
+    <hyperlink ref="F17" r:id="rId17" xr:uid="{7E9B1C1C-08C2-4E3A-836F-A55BD1AACB08}"/>
+    <hyperlink ref="F20" r:id="rId18" xr:uid="{3932249F-F50C-48B7-B9ED-979BED78C705}"/>
+    <hyperlink ref="F18" r:id="rId19" xr:uid="{617026E1-E8F8-41F0-B6F6-C7F3EABF9EDE}"/>
+    <hyperlink ref="F9" r:id="rId20" xr:uid="{D97E84B0-51EF-4445-A800-1CCE20EEB5DD}"/>
+    <hyperlink ref="F10" r:id="rId21" xr:uid="{37603052-44CC-44A4-A373-590BE7540B20}"/>
+    <hyperlink ref="F15" r:id="rId22" xr:uid="{57A67E62-1F07-4F81-BD71-0FCCC53DDD36}"/>
+    <hyperlink ref="F23" r:id="rId23" xr:uid="{386CA78F-ECAF-4BED-B017-86D6F4F05D83}"/>
+    <hyperlink ref="F24" r:id="rId24" xr:uid="{23053745-F5D1-4E91-88AD-FDB570AEC8C5}"/>
+    <hyperlink ref="F26" r:id="rId25" xr:uid="{3EC41E3D-44DB-45CF-A556-8137102A88B8}"/>
+    <hyperlink ref="F25" r:id="rId26" xr:uid="{72DA2EC0-5FE6-4692-99E2-83F80524A437}"/>
+    <hyperlink ref="F14" r:id="rId27" xr:uid="{11ED5ED0-56A5-4C20-93A1-FDAE72827046}"/>
+    <hyperlink ref="F21" r:id="rId28" xr:uid="{A893ABC8-5223-47F2-8335-C8AD6F9E7D68}"/>
+    <hyperlink ref="P3" r:id="rId29" xr:uid="{D1B00FCF-CFA9-4559-AFDD-E930832032EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>

--- a/Modules/CVMod8_V2/CVMod8_V2_BOM.xlsx
+++ b/Modules/CVMod8_V2/CVMod8_V2_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\CVMod8_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581BFAF7-CD2A-4DE0-8DF1-1E854AA43B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F94EFAB-22D7-43FB-BC71-C38F62E1C0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="122">
   <si>
     <t>Qty</t>
   </si>
@@ -493,6 +493,9 @@
       </rPr>
       <t>4 Isolated Resistors</t>
     </r>
+  </si>
+  <si>
+    <t>Thonkiconn</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1380,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,7 +1703,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
         <v>35</v>

--- a/Modules/CVMod8_V2/CVMod8_V2_BOM.xlsx
+++ b/Modules/CVMod8_V2/CVMod8_V2_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\CVMod8_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F94EFAB-22D7-43FB-BC71-C38F62E1C0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F273EAE-C0A9-40FE-882B-EDE365357EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,9 +74,6 @@
     <t>TL074</t>
   </si>
   <si>
-    <t>R-W4</t>
-  </si>
-  <si>
     <t>R-Array-SIP8</t>
   </si>
   <si>
@@ -108,18 +105,6 @@
   </si>
   <si>
     <t>Slide Potentiometer</t>
-  </si>
-  <si>
-    <t>Capacitor Ceramic THT</t>
-  </si>
-  <si>
-    <t>C-5mm</t>
-  </si>
-  <si>
-    <t>E2.5-6.3</t>
-  </si>
-  <si>
-    <t>Capacitor Polarized THT</t>
   </si>
   <si>
     <t>Rectifier Diode</t>
@@ -496,6 +481,21 @@
   </si>
   <si>
     <t>Thonkiconn</t>
+  </si>
+  <si>
+    <t>R-1/4W</t>
+  </si>
+  <si>
+    <t>C-P5mm</t>
+  </si>
+  <si>
+    <t>E-P2.5mm 6.3x11.5mm</t>
+  </si>
+  <si>
+    <t>Electrolytic Capacitor THT</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor THT</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1380,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -1422,16 +1422,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1442,20 +1442,20 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L3" s="3"/>
       <c r="P3" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1466,16 +1466,16 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1486,16 +1486,16 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1506,16 +1506,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1523,19 +1523,19 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1546,16 +1546,16 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1563,19 +1563,19 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1583,19 +1583,19 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1606,16 +1606,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1623,19 +1623,19 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1643,19 +1643,19 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1663,19 +1663,19 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1683,19 +1683,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1703,19 +1703,19 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1723,19 +1723,19 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1743,19 +1743,19 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1763,19 +1763,19 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1783,19 +1783,19 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1803,19 +1803,19 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1823,16 +1823,16 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1840,16 +1840,16 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1857,16 +1857,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1874,16 +1874,16 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1894,16 +1894,16 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
         <v>49</v>
       </c>
-      <c r="C28" t="s">
-        <v>54</v>
-      </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1911,16 +1911,16 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1928,16 +1928,16 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1945,21 +1945,21 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1967,27 +1967,27 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">

--- a/Modules/CVMod8_V2/CVMod8_V2_BOM.xlsx
+++ b/Modules/CVMod8_V2/CVMod8_V2_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\CVMod8_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F273EAE-C0A9-40FE-882B-EDE365357EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7507FA-3217-408B-A005-DBC75F8AA5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CVMod8 V2" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="129">
   <si>
     <t>Qty</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/l-937egw/tht-leds-3mm/kingbright-electronic/</t>
-  </si>
-  <si>
     <t>PJ398SM</t>
   </si>
   <si>
@@ -134,21 +131,6 @@
     <t>https://www.thonk.co.uk/shop/ttpots/</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/tl074acn/tht-operational-amplifiers/texas-instruments/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/1n4001-dio/tht-universal-diodes/diotec-semiconductor/1n4001/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/jrg-47u_35/tht-electrolytic-capacitors/jb-capacitors/jrg1v470m02500630115000b/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/cm-100n-x7r_100/mlcc-tht-capacitors/sr-passives/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/dr100k-4_8/resistor-networks/royal-ohm/rnlb08g0104b0e/</t>
-  </si>
-  <si>
     <t>https://www.aliexpress.com/item/1005002670881002.html</t>
   </si>
   <si>
@@ -209,12 +191,6 @@
     <t>https://www.aliexpress.com/item/1005003256254825.html</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/</t>
-  </si>
-  <si>
-    <t>Parts in itallic are on the front PCB!</t>
-  </si>
-  <si>
     <t>C1, C2</t>
   </si>
   <si>
@@ -236,18 +212,12 @@
     <t>B100k PTA3043 -2015DPB104</t>
   </si>
   <si>
-    <t>https://hr.mouser.com/ProductDetail/Bourns/PTA3043-2015DPB104?qs=zRGnDeWDVj0fVt3rAxibYA%3D%3D</t>
-  </si>
-  <si>
     <t>1x6</t>
   </si>
   <si>
     <t>Female Header 2.54mm</t>
   </si>
   <si>
-    <t>https://www.aliexpress.com/item/1005001557138121.html</t>
-  </si>
-  <si>
     <t>78L05</t>
   </si>
   <si>
@@ -257,18 +227,12 @@
     <t>Voltage Regulator 5V</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/l78l05abz/unregulated-voltage-regulators/stmicroelectronics/</t>
-  </si>
-  <si>
     <t>Voltage Regulator -5V NEGATIVE</t>
   </si>
   <si>
     <t>79L05</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/l79l05acz/unregulated-voltage-regulators/stmicroelectronics/</t>
-  </si>
-  <si>
     <t>U9</t>
   </si>
   <si>
@@ -284,55 +248,9 @@
     <t>https://www.thonk.co.uk/shop/sub-mini-toggle-switches/</t>
   </si>
   <si>
-    <t>RN1 - RN16</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">R1 - R8, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R11 - R18</t>
-    </r>
-  </si>
-  <si>
-    <t>C3 - C14</t>
-  </si>
-  <si>
     <t>U1 - U8</t>
   </si>
   <si>
-    <t>P_ATN1 - P_ATN8</t>
-  </si>
-  <si>
-    <t>P_OFS1 - P_OFS8</t>
-  </si>
-  <si>
-    <t>LD1 - LD8</t>
-  </si>
-  <si>
-    <t>J_IN1 - J_IN8, J_OUT1 - J_OUT8</t>
-  </si>
-  <si>
-    <t>J_A1 - J_A8</t>
-  </si>
-  <si>
-    <t>J_B1 - J_B8</t>
-  </si>
-  <si>
-    <t>J_A11 - J_A14</t>
-  </si>
-  <si>
-    <t>J_B11 - J_B14</t>
-  </si>
-  <si>
     <t>M2*5</t>
   </si>
   <si>
@@ -402,12 +320,6 @@
     </r>
   </si>
   <si>
-    <t>SW_FWD1 - SW_FWD7</t>
-  </si>
-  <si>
-    <t>SW_POL1 - SW_POL8</t>
-  </si>
-  <si>
     <r>
       <t>Sifam Sleek Slider Cap</t>
     </r>
@@ -462,9 +374,6 @@
     </r>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/zl202-80g/pin-headers/connfly/ds1021-2-40sf11/</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Resistor Network THT, </t>
     </r>
@@ -496,13 +405,436 @@
   </si>
   <si>
     <t>Ceramic Capacitor THT</t>
+  </si>
+  <si>
+    <t>Alt Link</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Bourns/PTA3043-2015DPB104?qs=zRGnDeWDVj0fVt3rAxibYA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p046/73P0034/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/icvt-14p/standard-dip-sockets/connfly/ds1009-14at1nx-0a2/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/zl262-3sg/pin-headers/connfly/ds1023-1-3s21/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/zl262-6sg/pin-headers/connfly/ds1023-1-6s21/</t>
+  </si>
+  <si>
+    <t>Avalon Harmonics CVMod8 V2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Parts  with underline are on the front PCB!</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/dr100k-4_8/resistor-networks/royal-ohm/rnlb08g0104b0e/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/cm-100n-x7r_100/mlcc-tht-capacitors/sr-passives/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/jrg-47u_35/tht-electrolytic-capacitors/jb-capacitors/jrg1v470m02500630115000b/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/1n4001-dio/tht-universal-diodes/diotec-semiconductor/1n4001/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/tl074acn/tht-operational-amplifiers/texas-instruments/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/l78l05abz/unregulated-voltage-regulators/stmicroelectronics/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/l79l05acz/unregulated-voltage-regulators/stmicroelectronics/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/l-937egw/tht-leds-3mm/kingbright-electronic/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/zl201-40g/pin-headers/connfly/ds1021-1-40sf11-b/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/zl202-80g/pin-headers/connfly/ds1021-2-40sf11/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/tfm-m2x10_dr211of/metal-spacers/dremec/211x10of/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P_ATN1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P_ATN8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P_OFS1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P_OFS8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LD1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LD8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SW_POL1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SW_POL8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SW_FWD1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SW_FWD7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_IN1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_IN8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> J_OUT1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_OUT8</t>
+    </r>
+  </si>
+  <si>
+    <t>J_A1-J_A8</t>
+  </si>
+  <si>
+    <t>J_A11-J_A14</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_B1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_B8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_B11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_B14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">R1-R8, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R18</t>
+    </r>
+  </si>
+  <si>
+    <t>RN1-RN16</t>
+  </si>
+  <si>
+    <t>C3-C14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,7 +1006,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1024,13 +1364,14 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1377,10 +1718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,650 +1729,740 @@
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
     <col min="3" max="3" width="34.85546875" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="38.85546875" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>16</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="P3" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="J5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="J7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" t="s">
-        <v>69</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>83</v>
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="J13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>107</v>
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="J14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>7</v>
       </c>
-      <c r="B15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="J17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4</v>
-      </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="J18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>88</v>
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>123</v>
       </c>
       <c r="E19" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="J19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>124</v>
       </c>
       <c r="E20" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="J24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="J25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="J26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
         <v>49</v>
       </c>
-      <c r="E29" t="s">
-        <v>55</v>
-      </c>
       <c r="F29" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="J29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
         <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="J30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
+      </c>
+      <c r="J31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
+      <c r="B34" s="6" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="F41" s="3"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C42" s="3"/>
-      <c r="G42" s="1"/>
-      <c r="J42" s="3"/>
+      <c r="A42" s="1"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C43" s="3"/>
+      <c r="G43" s="1"/>
+      <c r="J43" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F3" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F2" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F30" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F28" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F29" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F31" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F12" r:id="rId15" xr:uid="{0A1D7732-0DDD-4C8B-AC41-8A8F8A5F28FE}"/>
-    <hyperlink ref="F19" r:id="rId16" xr:uid="{87917B98-45C2-4356-99DB-B5B8038C28A9}"/>
-    <hyperlink ref="F17" r:id="rId17" xr:uid="{7E9B1C1C-08C2-4E3A-836F-A55BD1AACB08}"/>
-    <hyperlink ref="F20" r:id="rId18" xr:uid="{3932249F-F50C-48B7-B9ED-979BED78C705}"/>
-    <hyperlink ref="F18" r:id="rId19" xr:uid="{617026E1-E8F8-41F0-B6F6-C7F3EABF9EDE}"/>
-    <hyperlink ref="F9" r:id="rId20" xr:uid="{D97E84B0-51EF-4445-A800-1CCE20EEB5DD}"/>
-    <hyperlink ref="F10" r:id="rId21" xr:uid="{37603052-44CC-44A4-A373-590BE7540B20}"/>
-    <hyperlink ref="F15" r:id="rId22" xr:uid="{57A67E62-1F07-4F81-BD71-0FCCC53DDD36}"/>
-    <hyperlink ref="F23" r:id="rId23" xr:uid="{386CA78F-ECAF-4BED-B017-86D6F4F05D83}"/>
-    <hyperlink ref="F24" r:id="rId24" xr:uid="{23053745-F5D1-4E91-88AD-FDB570AEC8C5}"/>
-    <hyperlink ref="F26" r:id="rId25" xr:uid="{3EC41E3D-44DB-45CF-A556-8137102A88B8}"/>
-    <hyperlink ref="F25" r:id="rId26" xr:uid="{72DA2EC0-5FE6-4692-99E2-83F80524A437}"/>
-    <hyperlink ref="F14" r:id="rId27" xr:uid="{11ED5ED0-56A5-4C20-93A1-FDAE72827046}"/>
-    <hyperlink ref="F21" r:id="rId28" xr:uid="{A893ABC8-5223-47F2-8335-C8AD6F9E7D68}"/>
-    <hyperlink ref="P3" r:id="rId29" xr:uid="{D1B00FCF-CFA9-4559-AFDD-E930832032EF}"/>
+    <hyperlink ref="F14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J3" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F31" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F29" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F30" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F32" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J20" r:id="rId15" display="https://www.aliexpress.com/item/1005001557138121.html" xr:uid="{87917B98-45C2-4356-99DB-B5B8038C28A9}"/>
+    <hyperlink ref="F18" r:id="rId16" xr:uid="{7E9B1C1C-08C2-4E3A-836F-A55BD1AACB08}"/>
+    <hyperlink ref="J21" r:id="rId17" display="https://www.aliexpress.com/item/1005001557138121.html" xr:uid="{3932249F-F50C-48B7-B9ED-979BED78C705}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{617026E1-E8F8-41F0-B6F6-C7F3EABF9EDE}"/>
+    <hyperlink ref="F10" r:id="rId19" xr:uid="{D97E84B0-51EF-4445-A800-1CCE20EEB5DD}"/>
+    <hyperlink ref="F11" r:id="rId20" xr:uid="{37603052-44CC-44A4-A373-590BE7540B20}"/>
+    <hyperlink ref="F16" r:id="rId21" xr:uid="{57A67E62-1F07-4F81-BD71-0FCCC53DDD36}"/>
+    <hyperlink ref="F24" r:id="rId22" xr:uid="{386CA78F-ECAF-4BED-B017-86D6F4F05D83}"/>
+    <hyperlink ref="F25" r:id="rId23" xr:uid="{23053745-F5D1-4E91-88AD-FDB570AEC8C5}"/>
+    <hyperlink ref="F27" r:id="rId24" xr:uid="{3EC41E3D-44DB-45CF-A556-8137102A88B8}"/>
+    <hyperlink ref="F15" r:id="rId25" xr:uid="{11ED5ED0-56A5-4C20-93A1-FDAE72827046}"/>
+    <hyperlink ref="F22" r:id="rId26" xr:uid="{A893ABC8-5223-47F2-8335-C8AD6F9E7D68}"/>
+    <hyperlink ref="F4" r:id="rId27" xr:uid="{D1B00FCF-CFA9-4559-AFDD-E930832032EF}"/>
+    <hyperlink ref="F13" r:id="rId28" xr:uid="{29AEA817-32F1-41F4-A924-4F4000D4818B}"/>
+    <hyperlink ref="F3" r:id="rId29" xr:uid="{8A7A5D82-A3F8-44CA-BA5B-9240FAD7EA78}"/>
+    <hyperlink ref="F8" r:id="rId30" xr:uid="{5987D41B-D98C-45BC-A0CC-34272D97726E}"/>
+    <hyperlink ref="F21" r:id="rId31" xr:uid="{8E872B71-2423-4E3E-A4A8-BAD79ACAED0B}"/>
+    <hyperlink ref="F20" r:id="rId32" xr:uid="{7AFABD24-8F23-415C-8FB0-53C856BB2EE7}"/>
+    <hyperlink ref="F26" r:id="rId33" xr:uid="{43A1E3D1-40BA-485C-A829-B483D6181C61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
--- a/Modules/CVMod8_V2/CVMod8_V2_BOM.xlsx
+++ b/Modules/CVMod8_V2/CVMod8_V2_BOM.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\CVMod8_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7507FA-3217-408B-A005-DBC75F8AA5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB19257-EAEE-482B-A79F-2FB7D0BA5639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CVMod8 V2" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -98,9 +98,6 @@
     <t>LED Red/Green</t>
   </si>
   <si>
-    <t>LED 3mm Flat Bicolor</t>
-  </si>
-  <si>
     <t>L-937EGW</t>
   </si>
   <si>
@@ -828,6 +825,9 @@
   </si>
   <si>
     <t>C3-C14</t>
+  </si>
+  <si>
+    <t>LED 3mm Dome Bicolor</t>
   </si>
 </sst>
 </file>
@@ -1721,7 +1721,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1736,7 +1736,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1756,11 +1756,11 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1771,19 +1771,19 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1797,16 +1797,16 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L4" s="3"/>
     </row>
@@ -1818,19 +1818,19 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1841,19 +1841,19 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
         <v>93</v>
       </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" t="s">
-        <v>94</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1864,19 +1864,19 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1884,22 +1884,22 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1913,16 +1913,16 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1930,22 +1930,22 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" t="s">
-        <v>59</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1953,22 +1953,22 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1979,16 +1979,16 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1996,22 +1996,22 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2019,22 +2019,22 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2042,22 +2042,22 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" t="s">
         <v>64</v>
       </c>
-      <c r="C15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="J15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2065,22 +2065,22 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" t="s">
         <v>64</v>
       </c>
-      <c r="C16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="J16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2088,22 +2088,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2111,22 +2111,22 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2134,22 +2134,22 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2157,22 +2157,22 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
         <v>55</v>
       </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2180,22 +2180,22 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2203,10 +2203,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -2215,10 +2215,10 @@
         <v>19</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2226,19 +2226,19 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
         <v>68</v>
       </c>
-      <c r="C24" t="s">
+      <c r="F24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="J24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2246,19 +2246,19 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
         <v>70</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>71</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="J25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2266,19 +2266,19 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2286,19 +2286,19 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
         <v>74</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>75</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="J27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2309,19 +2309,19 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="J29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2329,19 +2329,19 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="J30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2349,19 +2349,19 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="J31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2369,24 +2369,24 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2394,27 +2394,27 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
